--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>Jhon Doe</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>2018-11-08 16:55:43.349969</t>
+  </si>
+  <si>
+    <t>232343545</t>
+  </si>
+  <si>
+    <t>2018-11-08 17:27:09.450864</t>
+  </si>
+  <si>
+    <t>2018-11-08 19:33:23.908833</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -513,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,13 +530,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1045,6 +1054,28 @@
       </c>
       <c r="C48" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>Jhon Doe</t>
   </si>
@@ -184,6 +184,9 @@
     <t>2018-11-08 19:33:23.908833</t>
   </si>
   <si>
+    <t>2018-11-09 10:31:48.901822</t>
+  </si>
+  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>Fecha de consulta</t>
+  </si>
+  <si>
+    <t>Obsoleto</t>
   </si>
 </sst>
 </file>
@@ -522,24 +528,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,8 +558,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -560,8 +572,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -571,8 +586,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -582,8 +600,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -593,8 +614,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -604,8 +628,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -615,8 +642,11 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -626,8 +656,11 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -637,8 +670,11 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -648,8 +684,11 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -659,8 +698,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -670,8 +712,11 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -681,8 +726,11 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -692,8 +740,11 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -703,8 +754,11 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -714,8 +768,11 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -725,8 +782,11 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -736,8 +796,11 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -747,8 +810,11 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -758,8 +824,11 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -769,8 +838,11 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -780,8 +852,11 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -791,8 +866,11 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -802,8 +880,11 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -813,8 +894,11 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -824,8 +908,11 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -835,8 +922,11 @@
       <c r="C28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -846,8 +936,11 @@
       <c r="C29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -857,8 +950,11 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -868,8 +964,11 @@
       <c r="C31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -879,8 +978,11 @@
       <c r="C32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -890,8 +992,11 @@
       <c r="C33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -901,8 +1006,11 @@
       <c r="C34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -912,8 +1020,11 @@
       <c r="C35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -923,8 +1034,11 @@
       <c r="C36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -934,8 +1048,11 @@
       <c r="C37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -945,8 +1062,11 @@
       <c r="C38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -956,8 +1076,11 @@
       <c r="C39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -967,8 +1090,11 @@
       <c r="C40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -978,8 +1104,11 @@
       <c r="C41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -989,8 +1118,11 @@
       <c r="C42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +1132,11 @@
       <c r="C43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1011,8 +1146,11 @@
       <c r="C44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1022,8 +1160,11 @@
       <c r="C45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1174,11 @@
       <c r="C46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1188,11 @@
       <c r="C47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1202,11 @@
       <c r="C48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1066,8 +1216,11 @@
       <c r="C49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1076,6 +1229,23 @@
       </c>
       <c r="C50" t="s">
         <v>55</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
